--- a/RtdClocks/RtdClock-ExcelRtdServer/BookTest.xlsx
+++ b/RtdClocks/RtdClock-ExcelRtdServer/BookTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\gitee\excel\ExcelDnaSamples\RtdClocks\RtdClock-ExcelRtdServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D1E281DF-DA3D-4B71-B573-C75835E64FB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{06E00374-A36C-4C67-8BC0-2A1815D558AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11868" xr2:uid="{9F0ECE55-87E7-4BCE-802E-27B97F70C6B1}"/>
   </bookViews>
@@ -67,18 +67,12 @@
     <t>pb1806</t>
   </si>
   <si>
-    <t>sn1805</t>
-  </si>
-  <si>
     <t>SR809</t>
   </si>
   <si>
     <t>TA809</t>
   </si>
   <si>
-    <t>IH1804</t>
-  </si>
-  <si>
     <t>T1806</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>m1809</t>
   </si>
   <si>
-    <t>IF1804</t>
-  </si>
-  <si>
     <t>TF1806</t>
   </si>
   <si>
@@ -149,9 +140,6 @@
   </si>
   <si>
     <t>rb1810</t>
-  </si>
-  <si>
-    <t>IC1804</t>
   </si>
   <si>
     <t>OI809</t>
@@ -166,6 +154,22 @@
   </si>
   <si>
     <t>priice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IH1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn1809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC1805</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,316 +264,302 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.1e3c4833a5914c12a72ab8bafdf6c1df">
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
+    <main first="rtdsrv.304d934ad0a44f9688ca2b97740bf720">
+      <tp>
+        <v>97.995000000000005</v>
+        <stp/>
+        <stp>TF1806</stp>
+        <stp>High</stp>
+        <tr r="C14" s="1"/>
+      </tp>
+      <tp>
+        <v>2650.8</v>
+        <stp/>
+        <stp>IH1805</stp>
+        <stp>High</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp>
+        <v>5885</v>
+        <stp/>
+        <stp>IC1805</stp>
+        <stp>High</stp>
+        <tr r="C42" s="1"/>
+      </tp>
+      <tp>
+        <v>3762.2</v>
+        <stp/>
+        <stp>IF1805</stp>
+        <stp>High</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+      <tp>
+        <v>24390</v>
+        <stp/>
+        <stp>zn1806</stp>
+        <stp>High</stp>
+        <tr r="C17" s="1"/>
+      </tp>
+      <tp>
+        <v>148320</v>
+        <stp/>
+        <stp>sn1809</stp>
+        <stp>High</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp>
+        <v>3483</v>
+        <stp/>
+        <stp>rb1810</stp>
+        <stp>High</stp>
+        <tr r="C41" s="1"/>
+      </tp>
+      <tp>
+        <v>11635</v>
+        <stp/>
+        <stp>ru1809</stp>
+        <stp>High</stp>
+        <tr r="C29" s="1"/>
+      </tp>
+      <tp>
+        <v>8962</v>
+        <stp/>
+        <stp>pp1809</stp>
+        <stp>High</stp>
+        <tr r="C30" s="1"/>
+      </tp>
+      <tp>
+        <v>18280</v>
+        <stp/>
+        <stp>pb1806</stp>
+        <stp>High</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp>
+        <v>4005</v>
+        <stp/>
+        <stp>jd1809</stp>
+        <stp>High</stp>
+        <tr r="C37" s="1"/>
+      </tp>
+      <tp>
+        <v>1156.5</v>
+        <stp/>
+        <stp>jm1809</stp>
+        <stp>High</stp>
+        <tr r="C38" s="1"/>
+      </tp>
+      <tp>
+        <v>3613</v>
+        <stp/>
+        <stp>hc1810</stp>
+        <stp>High</stp>
+        <tr r="C32" s="1"/>
+      </tp>
+      <tp>
+        <v>104710</v>
+        <stp/>
+        <stp>ni1807</stp>
+        <stp>High</stp>
+        <tr r="C33" s="1"/>
+      </tp>
+      <tp>
+        <v>2144</v>
+        <stp/>
+        <stp>cs1809</stp>
+        <stp>High</stp>
+        <tr r="C25" s="1"/>
+      </tp>
+      <tp>
+        <v>51480</v>
+        <stp/>
+        <stp>cu1806</stp>
+        <stp>High</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+      <tp>
+        <v>2852</v>
+        <stp/>
+        <stp>bu1806</stp>
+        <stp>High</stp>
+        <tr r="C34" s="1"/>
+      </tp>
+      <tp>
+        <v>273.75</v>
+        <stp/>
+        <stp>au1806</stp>
+        <stp>High</stp>
+        <tr r="C28" s="1"/>
+      </tp>
+      <tp>
+        <v>15000</v>
+        <stp/>
+        <stp>al1806</stp>
+        <stp>High</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+      <tp>
+        <v>3749</v>
+        <stp/>
+        <stp>ag1806</stp>
+        <stp>High</stp>
+        <tr r="C35" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.304d934ad0a44f9688ca2b97740bf720">
+      <tp>
+        <v>6138</v>
+        <stp/>
+        <stp>SF805</stp>
+        <stp>High</stp>
+        <tr r="C18" s="1"/>
+      </tp>
+      <tp>
+        <v>7772</v>
+        <stp/>
+        <stp>SM805</stp>
+        <stp>High</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp>
+        <v>589.79999999999995</v>
+        <stp/>
+        <stp>ZC809</stp>
+        <stp>High</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp>
+        <v>95.125</v>
+        <stp/>
+        <stp>T1806</stp>
+        <stp>High</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp>
+        <v>5590</v>
+        <stp/>
+        <stp>TA809</stp>
+        <stp>High</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+      <tp>
+        <v>2660</v>
+        <stp/>
+        <stp>RM809</stp>
+        <stp>High</stp>
+        <tr r="C23" s="1"/>
+      </tp>
+      <tp>
+        <v>5481</v>
+        <stp/>
+        <stp>SR809</stp>
+        <stp>High</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp>
+        <v>2670</v>
+        <stp/>
+        <stp>MA809</stp>
+        <stp>High</stp>
+        <tr r="C40" s="1"/>
+      </tp>
+      <tp>
+        <v>6564</v>
+        <stp/>
+        <stp>OI809</stp>
+        <stp>High</stp>
+        <tr r="C43" s="1"/>
+      </tp>
+      <tp>
+        <v>1380</v>
+        <stp/>
+        <stp>FG809</stp>
+        <stp>High</stp>
+        <tr r="C21" s="1"/>
+      </tp>
+      <tp>
+        <v>15430</v>
+        <stp/>
+        <stp>CF809</stp>
+        <stp>High</stp>
+        <tr r="C27" s="1"/>
+      </tp>
+      <tp>
+        <v>5826</v>
+        <stp/>
+        <stp>y1809</stp>
+        <stp>High</stp>
+        <tr r="C26" s="1"/>
+      </tp>
+      <tp>
+        <v>6680</v>
+        <stp/>
+        <stp>v1809</stp>
+        <stp>High</stp>
+        <tr r="C39" s="1"/>
+      </tp>
+      <tp>
+        <v>5018</v>
+        <stp/>
+        <stp>p1809</stp>
+        <stp>High</stp>
+        <tr r="C24" s="1"/>
+      </tp>
+      <tp>
+        <v>9280</v>
+        <stp/>
+        <stp>l1809</stp>
+        <stp>High</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp>
+        <v>3224</v>
+        <stp/>
+        <stp>m1809</stp>
+        <stp>High</stp>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp>
+        <v>468.5</v>
+        <stp/>
+        <stp>i1809</stp>
+        <stp>High</stp>
+        <tr r="C36" s="1"/>
+      </tp>
+      <tp>
+        <v>1859</v>
+        <stp/>
+        <stp>j1809</stp>
+        <stp>High</stp>
+        <tr r="C19" s="1"/>
+      </tp>
+      <tp>
+        <v>3853</v>
+        <stp/>
+        <stp>a1809</stp>
+        <stp>High</stp>
+        <tr r="C20" s="1"/>
+      </tp>
+      <tp>
+        <v>3552</v>
+        <stp/>
+        <stp>b1809</stp>
+        <stp>High</stp>
+        <tr r="C22" s="1"/>
+      </tp>
+      <tp>
+        <v>1749</v>
+        <stp/>
+        <stp>c1809</stp>
+        <stp>High</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp>
+        <v>7135</v>
         <stp/>
         <stp>AP810</stp>
         <stp>High</stp>
         <tr r="C31" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>FG809</stp>
-        <stp>High</stp>
-        <tr r="C21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>CF809</stp>
-        <stp>High</stp>
-        <tr r="C27" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>OI809</stp>
-        <stp>High</stp>
-        <tr r="C43" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>MA809</stp>
-        <stp>High</stp>
-        <tr r="C40" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>TA809</stp>
-        <stp>High</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>RM809</stp>
-        <stp>High</stp>
-        <tr r="C23" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>SR809</stp>
-        <stp>High</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>SF805</stp>
-        <stp>High</stp>
-        <tr r="C18" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>SM805</stp>
-        <stp>High</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>ZC809</stp>
-        <stp>High</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>T1806</stp>
-        <stp>High</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>b1809</stp>
-        <stp>High</stp>
-        <tr r="C22" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>c1809</stp>
-        <stp>High</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>a1809</stp>
-        <stp>High</stp>
-        <tr r="C20" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>l1809</stp>
-        <stp>High</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>m1809</stp>
-        <stp>High</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>j1809</stp>
-        <stp>High</stp>
-        <tr r="C19" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>i1809</stp>
-        <stp>High</stp>
-        <tr r="C36" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>v1809</stp>
-        <stp>High</stp>
-        <tr r="C39" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>p1809</stp>
-        <stp>High</stp>
-        <tr r="C24" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>y1809</stp>
-        <stp>High</stp>
-        <tr r="C26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1e3c4833a5914c12a72ab8bafdf6c1df">
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>IH1804</stp>
-        <stp>High</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>IC1804</stp>
-        <stp>High</stp>
-        <tr r="C42" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>IF1804</stp>
-        <stp>High</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>TF1806</stp>
-        <stp>High</stp>
-        <tr r="C14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1e3c4833a5914c12a72ab8bafdf6c1df">
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>au1806</stp>
-        <stp>High</stp>
-        <tr r="C28" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>al1806</stp>
-        <stp>High</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1e3c4833a5914c12a72ab8bafdf6c1df">
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>ag1806</stp>
-        <stp>High</stp>
-        <tr r="C35" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>cs1809</stp>
-        <stp>High</stp>
-        <tr r="C25" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>cu1806</stp>
-        <stp>High</stp>
-        <tr r="C16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>bu1806</stp>
-        <stp>High</stp>
-        <tr r="C34" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1e3c4833a5914c12a72ab8bafdf6c1df">
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>hc1810</stp>
-        <stp>High</stp>
-        <tr r="C32" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1e3c4833a5914c12a72ab8bafdf6c1df">
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>jd1809</stp>
-        <stp>High</stp>
-        <tr r="C37" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1e3c4833a5914c12a72ab8bafdf6c1df">
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>jm1809</stp>
-        <stp>High</stp>
-        <tr r="C38" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>ni1807</stp>
-        <stp>High</stp>
-        <tr r="C33" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1e3c4833a5914c12a72ab8bafdf6c1df">
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>pp1809</stp>
-        <stp>High</stp>
-        <tr r="C30" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>pb1806</stp>
-        <stp>High</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>sn1805</stp>
-        <stp>High</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>rb1810</stp>
-        <stp>High</stp>
-        <tr r="C41" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>ru1809</stp>
-        <stp>High</stp>
-        <tr r="C29" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1e3c4833a5914c12a72ab8bafdf6c1df">
-      <tp t="s">
-        <v>16:50:20 (ConnectData)**********</v>
-        <stp/>
-        <stp>zn1806</stp>
-        <stp>High</stp>
-        <tr r="C17" s="1"/>
       </tp>
     </main>
   </volType>
@@ -875,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A131FC3E-50E9-4901-A4E0-682AD0839233}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -886,13 +876,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -902,105 +892,105 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A2,B2)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>18280</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A3,B3)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>148320</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A4,B4)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A5,B5)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A6,B6)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>2650.8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A7,B7)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>95.125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A8,B8)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A9,B9)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A10,B10)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>589.79999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1010,81 +1000,81 @@
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A11,B11)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A12,B12)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A13,B13)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>3762.2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A14,B14)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>97.995000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A15,B15)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A16,B16)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>51480</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A17,B17)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>24390</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1094,9 +1084,9 @@
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A18,B18)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1106,21 +1096,21 @@
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A19,B19)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A20,B20)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1130,9 +1120,9 @@
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A21,B21)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1142,9 +1132,9 @@
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A22,B22)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1154,9 +1144,9 @@
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A23,B23)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1166,9 +1156,9 @@
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A24,B24)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>5018</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1178,9 +1168,9 @@
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A25,B25)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1190,9 +1180,9 @@
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A26,B26)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>5826</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1202,105 +1192,105 @@
       <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A27,B27)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>15430</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A28,B28)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>273.75</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A29,B29)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>11635</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A30,B30)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>8962</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A31,B31)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>7135</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A32,B32)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A33,B33)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>104710</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A34,B34)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A35,B35)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1310,93 +1300,93 @@
       <c r="B36" t="s">
         <v>1</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A36,B36)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>468.5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A37,B37)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A38,B38)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>1156.5</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A39,B39)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A40,B40)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A41,B41)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A42,B42)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43">
         <f>_xll.dnaRtdClock_ExcelRtdServer1(A43,B43)</f>
-        <v>16:50:20 (ConnectData)**********</v>
+        <v>6564</v>
       </c>
     </row>
   </sheetData>
